--- a/public/files/appointment-info.xlsx
+++ b/public/files/appointment-info.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Programare</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>2021-05-18 10:00</t>
+  </si>
+  <si>
+    <t>2021-05-24 13:00</t>
+  </si>
+  <si>
+    <t>2021-05-25 12:30</t>
+  </si>
+  <si>
+    <t>Giuredea Manuela-Ioana</t>
+  </si>
+  <si>
+    <t>Pedichiura cu oja semipermanenta</t>
   </si>
 </sst>
 </file>
@@ -398,7 +410,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +518,40 @@
       </c>
       <c r="E6">
         <v>45.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>50.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/appointment-info.xlsx
+++ b/public/files/appointment-info.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>Programare</t>
   </si>
@@ -30,48 +30,6 @@
   </si>
   <si>
     <t>Preț</t>
-  </si>
-  <si>
-    <t>2021-05-24 00:00</t>
-  </si>
-  <si>
-    <t>Manolache Alexandra</t>
-  </si>
-  <si>
-    <t>Tuns simplu</t>
-  </si>
-  <si>
-    <t>2021-05-25 13:00</t>
-  </si>
-  <si>
-    <t>Onea Alina</t>
-  </si>
-  <si>
-    <t>Dragos Truta</t>
-  </si>
-  <si>
-    <t>Tuns breton</t>
-  </si>
-  <si>
-    <t>2021-05-25 15:00</t>
-  </si>
-  <si>
-    <t>2021-05-18 12:30</t>
-  </si>
-  <si>
-    <t>2021-05-18 10:00</t>
-  </si>
-  <si>
-    <t>2021-05-24 13:00</t>
-  </si>
-  <si>
-    <t>2021-05-25 12:30</t>
-  </si>
-  <si>
-    <t>Giuredea Manuela-Ioana</t>
-  </si>
-  <si>
-    <t>Pedichiura cu oja semipermanenta</t>
   </si>
 </sst>
 </file>
@@ -410,7 +368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,125 +393,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>50.0</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
